--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1611228.575976038</v>
+        <v>1661121.352627037</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111176</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205211</v>
+        <v>11813519.27205212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6782912.373751303</v>
+        <v>6782912.373751304</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>48.83589518354175</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>128.3010969141651</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>186.2783301735246</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -861,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>55.71194092525318</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>18.29749587628862</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>38.14098620066922</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14.59515906968678</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>87.7061602166668</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.2705772094056</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>142.5066567036421</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>177.7304359951983</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>129.1651380545812</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.68677862866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>12.83153396320688</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>388.5285768212404</v>
       </c>
       <c r="G14" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>89.39725666042241</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>75.37369984173375</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>29.64081002319208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>99.78974769572874</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>376.4088801917399</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>72.93975341022575</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>40.39942132029048</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>144.6453993083821</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>73.36175976093797</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>323.043325261878</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>30.15743961067299</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>67.51731269241161</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>87.30283807112673</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
@@ -2219,7 +2219,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="C22" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>12.69255850894183</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1961088729338</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>87.3028380711265</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
@@ -2456,7 +2456,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>148.1008971906875</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>9.1572605193432</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>15.33404306682638</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>80.59769868233504</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>7.425224531302296</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.956680140836616</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>31.46288204362235</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>198.8954579313026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>172.2883630919287</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>65.61714981813321</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>26.1366804202145</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>145.6674229028286</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>81.21596998689259</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>95.71084011701905</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,13 +3110,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>55.84078033601362</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3125,7 +3125,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
@@ -3164,19 +3164,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>101.6180689288135</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>31.46288204362235</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>10.27077547947476</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>56.08084490968638</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
         <v>405.7415719969023</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>192.6254374377234</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>103.2569028412706</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>68.73766988481012</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>19.18822243440155</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>33.64439241526553</v>
       </c>
       <c r="H37" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1961088729338</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>264.0251236100229</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>120.3696041852722</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>87.67310095521948</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>180.0783550618347</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>159.2498848435175</v>
       </c>
       <c r="V41" t="n">
-        <v>36.57676897178855</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>120.9830058185666</v>
+        <v>29.45479480904315</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -3878,7 +3878,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>12.35168551462429</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>99.78974769572881</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>122.2708199350924</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>89.98174747814579</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>17.67662661015912</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>14.92575975093456</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>31.56348238011598</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>20.20113705803946</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C2" t="n">
-        <v>509.8046290289238</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D2" t="n">
-        <v>509.8046290289238</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4363,19 +4363,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>458.8561487300053</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W3" t="n">
-        <v>298.4948343740486</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4509,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
         <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4600,19 +4600,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
         <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>171.9306600429638</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>58.5615244505431</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>949.3145705917607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>775.8972260424296</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>573.7106314011955</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>345.4870131375847</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>110.334904905842</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>110.334904905842</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4755,22 +4755,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>348.0024326625565</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>332.5451220412079</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4840,16 +4840,16 @@
         <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>519.1730081326289</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>519.1730081326289</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4895,7 +4895,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>519.1730081326289</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>519.1730081326289</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.84447166430675</v>
+        <v>519.1730081326289</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>958.6333901110868</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C11" t="n">
-        <v>958.6333901110868</v>
+        <v>944.7120078795019</v>
       </c>
       <c r="D11" t="n">
-        <v>958.6333901110868</v>
+        <v>944.7120078795019</v>
       </c>
       <c r="E11" t="n">
-        <v>958.6333901110868</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="F11" t="n">
-        <v>779.107697186644</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2677254726013</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
@@ -5071,22 +5071,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1311.402045381201</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1311.402045381201</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V11" t="n">
-        <v>1311.402045381201</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W11" t="n">
-        <v>958.6333901110868</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X11" t="n">
-        <v>958.6333901110868</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y11" t="n">
-        <v>958.6333901110868</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>353.4469130139942</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C12" t="n">
-        <v>178.9938837328672</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D12" t="n">
-        <v>178.9938837328672</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E12" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F12" t="n">
         <v>32.45932575975218</v>
@@ -5126,16 +5126,16 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L12" t="n">
-        <v>147.3709770270844</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P12" t="n">
         <v>1513.730526286846</v>
@@ -5147,25 +5147,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1492.49645156884</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051268</v>
+        <v>1291.593442674334</v>
       </c>
       <c r="U12" t="n">
-        <v>1026.358376588747</v>
+        <v>1063.390775211812</v>
       </c>
       <c r="V12" t="n">
-        <v>791.2062683570039</v>
+        <v>828.2386669800692</v>
       </c>
       <c r="W12" t="n">
-        <v>536.9689116288023</v>
+        <v>574.0013102518675</v>
       </c>
       <c r="X12" t="n">
-        <v>536.9689116288023</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="Y12" t="n">
-        <v>353.4469130139942</v>
+        <v>366.1498100463347</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
         <v>32.45932575975218</v>
@@ -5241,10 +5241,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1221.101786128249</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="C14" t="n">
-        <v>852.1392691878377</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="D14" t="n">
-        <v>852.1392691878377</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="E14" t="n">
-        <v>852.1392691878377</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="F14" t="n">
-        <v>442.299297473795</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
         <v>32.45932575975219</v>
@@ -5278,10 +5278,10 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T14" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U14" t="n">
-        <v>1311.402045381201</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="V14" t="n">
-        <v>1311.402045381201</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="W14" t="n">
-        <v>1311.402045381201</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="X14" t="n">
-        <v>1221.101786128249</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="Y14" t="n">
-        <v>1221.101786128249</v>
+        <v>1171.560805086887</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>670.7339080607137</v>
+        <v>247.0067493457676</v>
       </c>
       <c r="C15" t="n">
-        <v>496.2808787795867</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D15" t="n">
-        <v>347.3464691183354</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E15" t="n">
-        <v>347.3464691183354</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F15" t="n">
-        <v>200.8119111452204</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G15" t="n">
-        <v>62.39953790439066</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>62.39953790439066</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384404</v>
+        <v>201.1187329501918</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>498.850487931855</v>
       </c>
       <c r="M15" t="n">
-        <v>758.3581127497703</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N15" t="n">
-        <v>1160.042269026704</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O15" t="n">
-        <v>1483.055776201262</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P15" t="n">
         <v>1622.966287987609</v>
@@ -5381,28 +5381,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U15" t="n">
-        <v>1254.561044051268</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V15" t="n">
-        <v>1254.561044051268</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W15" t="n">
-        <v>1254.561044051268</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="X15" t="n">
-        <v>1046.709543845736</v>
+        <v>415.2220863658356</v>
       </c>
       <c r="Y15" t="n">
-        <v>838.9492450807818</v>
+        <v>415.2220863658356</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
         <v>32.45932575975219</v>
@@ -5475,13 +5475,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>71.82943156598952</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>71.82943156598952</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.82943156598952</v>
+        <v>133.2570507049327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>828.0875500720392</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="C17" t="n">
-        <v>828.0875500720392</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="D17" t="n">
-        <v>828.0875500720392</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="E17" t="n">
-        <v>442.2992974737949</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="F17" t="n">
-        <v>442.2992974737949</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5545,22 +5545,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1549.289769391421</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1549.289769391421</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>1218.226882047851</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W17" t="n">
-        <v>1218.226882047851</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X17" t="n">
-        <v>1218.226882047851</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="Y17" t="n">
-        <v>828.0875500720392</v>
+        <v>939.1347453739243</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>247.7198513240009</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="C18" t="n">
-        <v>73.26682204287388</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D18" t="n">
-        <v>73.26682204287388</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E18" t="n">
-        <v>73.26682204287388</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F18" t="n">
-        <v>73.26682204287388</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G18" t="n">
-        <v>73.26682204287388</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H18" t="n">
-        <v>73.26682204287388</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P18" t="n">
         <v>1622.966287987609</v>
@@ -5618,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1476.859824039748</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1275.956815145242</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1047.75414768272</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>812.6020394509774</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>558.3646827227757</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240009</v>
+        <v>350.5131825172429</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.7198513240009</v>
+        <v>142.7528837522889</v>
       </c>
     </row>
     <row r="19">
@@ -5709,10 +5709,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X19" t="n">
         <v>32.45932575975218</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>358.7657149131643</v>
+        <v>472.761357686596</v>
       </c>
       <c r="C20" t="n">
-        <v>358.7657149131643</v>
+        <v>472.761357686596</v>
       </c>
       <c r="D20" t="n">
-        <v>358.7657149131643</v>
+        <v>472.761357686596</v>
       </c>
       <c r="E20" t="n">
-        <v>358.7657149131643</v>
+        <v>472.761357686596</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975219</v>
+        <v>62.9213859725532</v>
       </c>
       <c r="G20" t="n">
         <v>32.45932575975219</v>
@@ -5758,7 +5758,7 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
         <v>838.8947028941458</v>
@@ -5767,37 +5767,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X20" t="n">
-        <v>1135.504886953098</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y20" t="n">
-        <v>745.3655549772861</v>
+        <v>859.3611977507178</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.45932575975219</v>
+        <v>275.1116607907899</v>
       </c>
       <c r="C21" t="n">
-        <v>32.45932575975219</v>
+        <v>100.6586315096629</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975219</v>
+        <v>100.6586315096629</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975219</v>
+        <v>100.6586315096629</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975219</v>
+        <v>100.6586315096629</v>
       </c>
       <c r="G21" t="n">
         <v>32.45932575975219</v>
@@ -5849,34 +5849,34 @@
         <v>1454.30688079717</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1534.78160306728</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1333.878594172773</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1105.675926710251</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V21" t="n">
-        <v>870.5238184785085</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W21" t="n">
-        <v>616.2864617503069</v>
+        <v>690.7234597612767</v>
       </c>
       <c r="X21" t="n">
-        <v>408.4349615447741</v>
+        <v>482.8719595557438</v>
       </c>
       <c r="Y21" t="n">
-        <v>200.6746627798202</v>
+        <v>275.1116607907899</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
         <v>32.45932575975219</v>
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1236.366447923488</v>
+        <v>978.9900729440517</v>
       </c>
       <c r="C23" t="n">
-        <v>1236.366447923488</v>
+        <v>966.1693067734034</v>
       </c>
       <c r="D23" t="n">
-        <v>1236.366447923488</v>
+        <v>607.9036081666529</v>
       </c>
       <c r="E23" t="n">
-        <v>850.5781953252433</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F23" t="n">
-        <v>440.7382236112005</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6022,19 +6022,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="X23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="Y23" t="n">
-        <v>1622.966287987609</v>
+        <v>978.9900729440517</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.45932575975219</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
         <v>32.45932575975219</v>
@@ -6071,16 +6071,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
-        <v>505.9483651585071</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M24" t="n">
-        <v>546.7891136313473</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O24" t="n">
         <v>1271.486777082839</v>
@@ -6095,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1534.78160306728</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1333.878594172773</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1105.675926710251</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>870.5238184785085</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W24" t="n">
-        <v>616.2864617503069</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X24" t="n">
-        <v>408.4349615447741</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y24" t="n">
-        <v>200.6746627798202</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G25" t="n">
         <v>32.45932575975219</v>
@@ -6150,7 +6150,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6171,28 +6171,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>254.0859912868768</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>816.0539284712793</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="C26" t="n">
-        <v>816.0539284712793</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="D26" t="n">
-        <v>457.7882298645288</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E26" t="n">
-        <v>457.7882298645288</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F26" t="n">
-        <v>457.7882298645288</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G26" t="n">
-        <v>47.94825815048591</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H26" t="n">
-        <v>47.94825815048591</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975219</v>
@@ -6250,28 +6250,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T26" t="n">
-        <v>1202.653768535401</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U26" t="n">
-        <v>1202.653768535401</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V26" t="n">
-        <v>1202.653768535401</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="W26" t="n">
-        <v>1202.653768535401</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="X26" t="n">
-        <v>1202.653768535401</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="Y26" t="n">
-        <v>1202.653768535401</v>
+        <v>1096.495941019763</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>573.594514515827</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="C27" t="n">
-        <v>399.1414852346999</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="D27" t="n">
-        <v>250.2070755734487</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="E27" t="n">
-        <v>250.2070755734487</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="F27" t="n">
-        <v>250.2070755734487</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7947023326189</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
@@ -6308,19 +6308,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M27" t="n">
-        <v>729.6092173456784</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N27" t="n">
-        <v>1131.293373622612</v>
+        <v>1299.952780813052</v>
       </c>
       <c r="O27" t="n">
-        <v>1454.30688079717</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P27" t="n">
         <v>1622.96628798761</v>
@@ -6329,28 +6329,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.96628798761</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1422.063279093103</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1193.860611630581</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V27" t="n">
-        <v>958.7085033988385</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W27" t="n">
-        <v>958.7085033988385</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X27" t="n">
-        <v>750.8570031933057</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y27" t="n">
-        <v>741.8098515358949</v>
+        <v>39.95955255904744</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>201.8802040902677</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="C28" t="n">
-        <v>201.8802040902677</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="D28" t="n">
-        <v>201.8802040902677</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="E28" t="n">
-        <v>201.8802040902677</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F28" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
         <v>32.45932575975219</v>
@@ -6414,22 +6414,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="X28" t="n">
-        <v>201.8802040902677</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.8802040902677</v>
+        <v>329.4659126699983</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>939.1347453739247</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="C29" t="n">
-        <v>570.1722284335131</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="D29" t="n">
-        <v>369.2677254726013</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E29" t="n">
-        <v>369.2677254726013</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F29" t="n">
         <v>369.2677254726013</v>
@@ -6487,28 +6487,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.96628798761</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.96628798761</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="V29" t="n">
-        <v>1291.903400644039</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="W29" t="n">
-        <v>939.1347453739247</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="X29" t="n">
-        <v>939.1347453739247</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="Y29" t="n">
-        <v>939.1347453739247</v>
+        <v>1137.373395793395</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>463.7404710065309</v>
+        <v>382.2474519952764</v>
       </c>
       <c r="C30" t="n">
-        <v>289.2874417254039</v>
+        <v>207.7944227141494</v>
       </c>
       <c r="D30" t="n">
-        <v>289.2874417254039</v>
+        <v>58.86001305289815</v>
       </c>
       <c r="E30" t="n">
-        <v>289.2874417254039</v>
+        <v>58.86001305289815</v>
       </c>
       <c r="F30" t="n">
-        <v>142.7528837522889</v>
+        <v>58.86001305289815</v>
       </c>
       <c r="G30" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
         <v>32.45932575975219</v>
@@ -6575,19 +6575,19 @@
         <v>1455.464052945775</v>
       </c>
       <c r="U30" t="n">
-        <v>1227.261385483254</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V30" t="n">
-        <v>992.109277251511</v>
+        <v>1220.311944714033</v>
       </c>
       <c r="W30" t="n">
-        <v>737.8719205233094</v>
+        <v>966.0745879858312</v>
       </c>
       <c r="X30" t="n">
-        <v>530.0204203177766</v>
+        <v>758.2230877802983</v>
       </c>
       <c r="Y30" t="n">
-        <v>530.0204203177766</v>
+        <v>550.4627890153445</v>
       </c>
     </row>
     <row r="31">
@@ -6654,19 +6654,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>214.1077905899919</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="V31" t="n">
-        <v>214.1077905899919</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="W31" t="n">
-        <v>214.1077905899919</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X31" t="n">
-        <v>214.1077905899919</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>472.7613576865962</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="C32" t="n">
-        <v>472.7613576865962</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="D32" t="n">
-        <v>114.4956590798457</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="E32" t="n">
-        <v>114.4956590798457</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975219</v>
+        <v>538.9769137536123</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975219</v>
+        <v>129.1369420395694</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>129.1369420395694</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975219</v>
@@ -6727,25 +6727,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.96628798761</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.96628798761</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.96628798761</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="X32" t="n">
-        <v>1249.50052972653</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="Y32" t="n">
-        <v>859.361197750718</v>
+        <v>948.8168854676551</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>643.3420985939251</v>
+        <v>466.3406666349482</v>
       </c>
       <c r="C33" t="n">
-        <v>586.9372699716891</v>
+        <v>466.3406666349482</v>
       </c>
       <c r="D33" t="n">
-        <v>586.9372699716891</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E33" t="n">
-        <v>427.6998149662337</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F33" t="n">
-        <v>281.1652569931187</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G33" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
         <v>32.45932575975219</v>
@@ -6785,16 +6785,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278475</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
         <v>1622.96628798761</v>
@@ -6803,28 +6803,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051269</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1254.561044051269</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V33" t="n">
-        <v>1019.408935819526</v>
+        <v>842.31630241997</v>
       </c>
       <c r="W33" t="n">
-        <v>1019.408935819526</v>
+        <v>842.31630241997</v>
       </c>
       <c r="X33" t="n">
-        <v>811.5574356139932</v>
+        <v>842.31630241997</v>
       </c>
       <c r="Y33" t="n">
-        <v>811.5574356139932</v>
+        <v>634.5560036550162</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>350.872080916612</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>350.872080916612</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="D34" t="n">
-        <v>350.872080916612</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="E34" t="n">
-        <v>350.872080916612</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F34" t="n">
-        <v>350.872080916612</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
         <v>32.45932575975219</v>
@@ -6894,16 +6894,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>350.872080916612</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>350.872080916612</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>350.872080916612</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>350.872080916612</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1057.565162313455</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="C35" t="n">
-        <v>688.6026453730437</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="D35" t="n">
-        <v>688.6026453730437</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="E35" t="n">
-        <v>631.9553272824514</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="F35" t="n">
         <v>631.9553272824514</v>
@@ -6946,7 +6946,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1057.565162313455</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1057.565162313455</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>1057.565162313455</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>1057.565162313455</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y35" t="n">
-        <v>1057.565162313455</v>
+        <v>1428.395139060616</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>366.1498100463347</v>
+        <v>442.531240598192</v>
       </c>
       <c r="C36" t="n">
-        <v>191.6967807652077</v>
+        <v>442.531240598192</v>
       </c>
       <c r="D36" t="n">
-        <v>191.6967807652077</v>
+        <v>442.531240598192</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975219</v>
+        <v>283.2937855927365</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>136.7592276196215</v>
       </c>
       <c r="G36" t="n">
         <v>32.45932575975219</v>
@@ -7016,22 +7016,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L36" t="n">
-        <v>505.9483651585071</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M36" t="n">
-        <v>905.3665017627701</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N36" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O36" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
         <v>1622.966287987609</v>
@@ -7049,19 +7049,19 @@
         <v>1254.561044051268</v>
       </c>
       <c r="U36" t="n">
-        <v>1185.129054268632</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V36" t="n">
-        <v>949.9769460368893</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="W36" t="n">
-        <v>949.9769460368893</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="X36" t="n">
-        <v>742.1254458313565</v>
+        <v>818.5068763832139</v>
       </c>
       <c r="Y36" t="n">
-        <v>534.3651470664026</v>
+        <v>610.7465776182601</v>
       </c>
     </row>
     <row r="37">
@@ -7074,19 +7074,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="C37" t="n">
-        <v>341.8645587399183</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D37" t="n">
-        <v>341.8645587399183</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E37" t="n">
-        <v>193.9514651575251</v>
+        <v>213.333508020557</v>
       </c>
       <c r="F37" t="n">
-        <v>193.9514651575251</v>
+        <v>66.44356052264666</v>
       </c>
       <c r="G37" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
         <v>32.45932575975219</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1236.366447923488</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C38" t="n">
-        <v>1236.366447923488</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D38" t="n">
-        <v>1236.366447923488</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E38" t="n">
-        <v>850.5781953252433</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F38" t="n">
-        <v>440.7382236112005</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975219</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X38" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y38" t="n">
-        <v>1622.966287987609</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>154.0447845327544</v>
+        <v>319.8061086618332</v>
       </c>
       <c r="C39" t="n">
-        <v>154.0447845327544</v>
+        <v>319.8061086618332</v>
       </c>
       <c r="D39" t="n">
-        <v>154.0447845327544</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E39" t="n">
-        <v>154.0447845327544</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F39" t="n">
-        <v>154.0447845327544</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
         <v>32.45932575975219</v>
@@ -7253,22 +7253,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>534.697260562599</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668621</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N39" t="n">
-        <v>1335.799553443796</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7277,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T39" t="n">
-        <v>1455.464052945775</v>
+        <v>1453.010040054786</v>
       </c>
       <c r="U39" t="n">
-        <v>1227.261385483253</v>
+        <v>1224.807372592264</v>
       </c>
       <c r="V39" t="n">
-        <v>992.1092772515108</v>
+        <v>989.6552643605216</v>
       </c>
       <c r="W39" t="n">
-        <v>737.8719205233092</v>
+        <v>735.41790763232</v>
       </c>
       <c r="X39" t="n">
-        <v>530.0204203177764</v>
+        <v>527.5664074267871</v>
       </c>
       <c r="Y39" t="n">
-        <v>322.2601215528225</v>
+        <v>319.8061086618332</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="C40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="D40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="E40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F40" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
         <v>32.45932575975219</v>
@@ -7359,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="T40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="U40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="V40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="W40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="X40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.6199360758255</v>
+        <v>179.3492732576626</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>779.1076971866441</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="C41" t="n">
-        <v>779.1076971866441</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1076971866441</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="E41" t="n">
-        <v>779.1076971866441</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1076971866441</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G41" t="n">
-        <v>369.2677254726013</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
@@ -7444,19 +7444,19 @@
         <v>1202.653768535401</v>
       </c>
       <c r="U41" t="n">
-        <v>1202.653768535401</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="V41" t="n">
-        <v>1165.707537250766</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="W41" t="n">
-        <v>1165.707537250766</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="X41" t="n">
-        <v>1165.707537250766</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="Y41" t="n">
-        <v>1165.707537250766</v>
+        <v>1041.795298996494</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>329.1174114232697</v>
+        <v>524.0114559318927</v>
       </c>
       <c r="C42" t="n">
-        <v>154.6643821421427</v>
+        <v>349.5584266507657</v>
       </c>
       <c r="D42" t="n">
-        <v>154.6643821421427</v>
+        <v>200.6240169895144</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G42" t="n">
         <v>32.45932575975219</v>
@@ -7496,19 +7496,19 @@
         <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270843</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313473</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7517,25 +7517,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051268</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.358376588747</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V42" t="n">
-        <v>791.2062683570041</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="W42" t="n">
-        <v>536.9689116288025</v>
+        <v>939.6232549023794</v>
       </c>
       <c r="X42" t="n">
-        <v>329.1174114232697</v>
+        <v>731.7717546968465</v>
       </c>
       <c r="Y42" t="n">
-        <v>329.1174114232697</v>
+        <v>524.0114559318927</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G43" t="n">
         <v>32.45932575975219</v>
@@ -7596,25 +7596,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="V43" t="n">
-        <v>260.4488766577695</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="W43" t="n">
-        <v>260.4488766577695</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="X43" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>924.0708748028611</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C44" t="n">
-        <v>924.0708748028611</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D44" t="n">
-        <v>565.8051761961106</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E44" t="n">
-        <v>565.8051761961106</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F44" t="n">
-        <v>155.9652044820677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G44" t="n">
-        <v>155.9652044820677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975219</v>
@@ -7663,37 +7663,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1255.133762146432</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>924.0708748028611</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>924.0708748028611</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>924.0708748028611</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>924.0708748028611</v>
+        <v>1532.07563396928</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>735.8716796329404</v>
+        <v>643.4333000345039</v>
       </c>
       <c r="C45" t="n">
-        <v>735.8716796329404</v>
+        <v>643.4333000345039</v>
       </c>
       <c r="D45" t="n">
-        <v>586.9372699716891</v>
+        <v>494.4988903732526</v>
       </c>
       <c r="E45" t="n">
-        <v>427.6998149662337</v>
+        <v>335.2614353677971</v>
       </c>
       <c r="F45" t="n">
-        <v>281.1652569931187</v>
+        <v>188.7268773946821</v>
       </c>
       <c r="G45" t="n">
-        <v>142.7528837522889</v>
+        <v>50.31450415385231</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975219</v>
@@ -7730,19 +7730,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>208.2166101768439</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>607.634746781107</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N45" t="n">
-        <v>1009.31890305804</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
         <v>1513.730526286846</v>
@@ -7754,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1422.063279093103</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U45" t="n">
-        <v>1193.860611630581</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V45" t="n">
-        <v>958.7085033988383</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W45" t="n">
-        <v>943.6319783978943</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="X45" t="n">
-        <v>943.6319783978943</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="Y45" t="n">
-        <v>735.8716796329404</v>
+        <v>811.648637054572</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="C46" t="n">
-        <v>361.2466016029501</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="D46" t="n">
-        <v>329.3642961684895</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="E46" t="n">
-        <v>181.4512025860964</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="F46" t="n">
-        <v>181.4512025860964</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G46" t="n">
-        <v>181.4512025860964</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975219</v>
@@ -7833,25 +7833,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>340.8414126554355</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>340.8414126554355</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8774,19 +8774,19 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
-        <v>157.1342855878805</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026374</v>
+        <v>257.2956640563644</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>215.0958621574522</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>174.18790452568</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q18" t="n">
         <v>99.73813450275541</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>244.1351504444139</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q21" t="n">
         <v>99.73813450275541</v>
@@ -9719,13 +9719,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M24" t="n">
-        <v>103.5056817990678</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>455.0874215304797</v>
@@ -9956,7 +9956,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304798</v>
+        <v>447.9178485742657</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>244.1351504444139</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275541</v>
@@ -10433,19 +10433,19 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>296.512727107936</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>244.1351504444139</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275541</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209744</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.9178485742655</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>99.73813450275541</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>447.9178485742655</v>
       </c>
       <c r="O39" t="n">
-        <v>112.9628022719297</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275541</v>
@@ -11144,13 +11144,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
-        <v>157.1342855878804</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479947</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,10 +11378,10 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>70.10119885733471</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,10 +11390,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>332.4020837719218</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.7959972113198</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>222.7662350673655</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>229.1456097465131</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23345,10 +23345,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
@@ -23387,7 +23387,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>36.66207463683457</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.99591714864439</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>133.6024286833623</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.7266695472104</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1344737448091</v>
+        <v>18.34746892047099</v>
       </c>
       <c r="G14" t="n">
         <v>8.971932133631583</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>280.3338440180466</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,16 +23576,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>97.33479914658199</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>48.90121278394597</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>80.04223248620856</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>106.4446432747563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>30.46716554997158</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>147.576727012814</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
         <v>251.2985142370684</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23828,10 +23828,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.14260148684756</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>21.1818133830337</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23949,13 +23949,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>213.161238575653</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>83.83272047983343</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>384.5560645198609</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>69.51093681600985</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.52437462028902</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>140.8555754337623</v>
       </c>
       <c r="C22" t="n">
-        <v>128.2704163504529</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>352.5803332620657</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>10.51739525760007</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24335,7 +24335,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>78.52437462028925</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>84.69968995873779</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>136.263787503588</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24387,7 +24387,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>59.32005692394495</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>172.4254264437435</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>268.643270035078</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>101.7653978813091</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.7260156364677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24654,7 +24654,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>195.3533836456889</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>67.9369218514816</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>155.7875836893803</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>48.22811733111115</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.9160338317341</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>110.8915690882069</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24815,7 +24815,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24894,7 +24894,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>140.6371895548669</v>
+        <v>179.3898627250244</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>325.6600757548189</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>92.04862939355087</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>116.8677186523021</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>131.1825182206118</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>135.7839390550055</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
         <v>74.67247646141476</v>
@@ -25134,7 +25134,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>241.8668678443532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>325.8495251625754</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G35" t="n">
         <v>8.971932133631583</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>193.6125012183302</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>33.77134666715085</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
@@ -25289,10 +25289,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>157.1829709030865</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>148.0585986642263</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>134.0822771319449</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
-        <v>10.51739525760007</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25450,7 +25450,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>63.72713486011196</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>16.65864532314926</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>111.2208778503422</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25569,7 +25569,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>41.41295384516819</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
         <v>74.67247646141476</v>
@@ -25599,7 +25599,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>39.33204381001869</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
         <v>8.971932133631583</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>92.04862939355093</v>
       </c>
       <c r="V41" t="n">
-        <v>291.1754894983463</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25712,16 +25712,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>36.66207463683438</v>
+        <v>128.1902856463578</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
@@ -25757,7 +25757,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25836,7 +25836,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>207.0587133572291</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25845,13 +25845,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>152.3478956280992</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>211.1694957806282</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
@@ -25921,10 +25921,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>296.2561911779078</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>91.51399580245224</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25994,19 +25994,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>236.769223409985</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0519906380964</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141475</v>
@@ -26073,7 +26073,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4103988718534</v>
+        <v>199.2092618138139</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>478527.6618063066</v>
+        <v>478527.6618063062</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>478527.6618063062</v>
+        <v>478527.6618063063</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>478527.6618063063</v>
+        <v>478527.6618063064</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>478527.6618063067</v>
+        <v>478527.6618063066</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>478527.6618063067</v>
+        <v>478527.6618063066</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>478527.6618063067</v>
+        <v>478527.6618063066</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>478527.6618063063</v>
+        <v>478527.6618063068</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>478527.6618063067</v>
+        <v>478527.6618063068</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.150411784</v>
       </c>
       <c r="E2" t="n">
         <v>277717.5661839884</v>
@@ -26334,28 +26334,28 @@
         <v>277717.5661839885</v>
       </c>
       <c r="I2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="J2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="K2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
       <c r="M2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="N2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839886</v>
       </c>
       <c r="O2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="P2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
     </row>
     <row r="3">
@@ -26438,7 +26438,7 @@
         <v>8850.046967220573</v>
       </c>
       <c r="I4" t="n">
-        <v>8850.046967220573</v>
+        <v>8850.046967220575</v>
       </c>
       <c r="J4" t="n">
         <v>8850.046967220573</v>
@@ -26527,43 +26527,43 @@
         <v>197903.2429442205</v>
       </c>
       <c r="D6" t="n">
-        <v>197903.2429442204</v>
+        <v>197903.2429442207</v>
       </c>
       <c r="E6" t="n">
-        <v>64218.39678438676</v>
+        <v>73078.53623842585</v>
       </c>
       <c r="F6" t="n">
-        <v>231158.5669096337</v>
+        <v>240018.7063636727</v>
       </c>
       <c r="G6" t="n">
-        <v>231158.5669096337</v>
+        <v>240018.7063636727</v>
       </c>
       <c r="H6" t="n">
-        <v>231158.5669096336</v>
+        <v>240018.7063636727</v>
       </c>
       <c r="I6" t="n">
-        <v>231158.5669096335</v>
+        <v>240018.7063636727</v>
       </c>
       <c r="J6" t="n">
-        <v>168098.6243105274</v>
+        <v>176958.7637645664</v>
       </c>
       <c r="K6" t="n">
-        <v>231158.5669096336</v>
+        <v>240018.7063636727</v>
       </c>
       <c r="L6" t="n">
-        <v>231158.5669096336</v>
+        <v>240018.7063636728</v>
       </c>
       <c r="M6" t="n">
-        <v>190107.8690471857</v>
+        <v>198968.0085012247</v>
       </c>
       <c r="N6" t="n">
-        <v>231158.5669096335</v>
+        <v>240018.7063636728</v>
       </c>
       <c r="O6" t="n">
-        <v>231158.5669096336</v>
+        <v>240018.7063636727</v>
       </c>
       <c r="P6" t="n">
-        <v>231158.5669096335</v>
+        <v>240018.7063636727</v>
       </c>
     </row>
   </sheetData>
@@ -26758,7 +26758,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="J3" t="n">
         <v>146.571804419537</v>
@@ -26807,7 +26807,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
         <v>405.7415719969023</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>316.4369965874658</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>97.64028516680972</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>19.4946550299529</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R4" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>351.1641048164582</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.1783936941173</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>51.25564665074586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>85.56267508295636</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>213.1087345205756</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>251.7686418991003</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.2220797075721</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>11.42440595151402</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>124.3999708738849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32171,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32180,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I23" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438474</v>
@@ -32724,16 +32724,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
@@ -32742,7 +32742,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M24" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,40 +32861,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M25" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>87.03308673054582</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366293</v>
@@ -35506,7 +35506,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q12" t="n">
         <v>110.3391532330937</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
@@ -35743,7 +35743,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>141.323749279139</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
@@ -35974,13 +35974,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>124.8420549921026</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>170.3630375661007</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726433</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M24" t="n">
-        <v>41.25328128569715</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
         <v>405.7415719969023</v>
@@ -36454,7 +36454,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>110.3391532330937</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354744</v>
@@ -36530,10 +36530,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36685,13 +36685,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969024</v>
+        <v>398.5719990406883</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>170.3630375661007</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506013</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
@@ -37165,7 +37165,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>170.3630375661007</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636397</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>398.5719990406881</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223149</v>
@@ -37633,13 +37633,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>398.5719990406881</v>
       </c>
       <c r="O39" t="n">
-        <v>45.37675286849116</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>87.03308673054569</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144174</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37879,7 +37879,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N44" t="n">
-        <v>313.0722467132383</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
         <v>249.9811662707763</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
@@ -38110,10 +38110,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>264.8160343684832</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3391532330937</v>
